--- a/RFQ_Excel/5995/fin.xlsx
+++ b/RFQ_Excel/5995/fin.xlsx
@@ -670,6 +670,9 @@
           <t>215-90728-6 - OP Finish</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
       <c r="D3" t="n">
         <v>1.135</v>
       </c>

--- a/RFQ_Excel/5995/fin.xlsx
+++ b/RFQ_Excel/5995/fin.xlsx
@@ -1,47 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saggarwal\PythonProjects\email_app_new\RFQ_Excel\5995\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E290AB-F28A-45D0-9A7E-6A98976BCE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25380" yWindow="2985" windowWidth="25875" windowHeight="11475" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-27345" yWindow="2610" windowWidth="25875" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Part Width</t>
+  </si>
+  <si>
+    <t>Part Length</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ShippingCharge</t>
+  </si>
+  <si>
+    <t>LeadTime</t>
+  </si>
+  <si>
+    <t>GoodUntil (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Currency Code</t>
+  </si>
+  <si>
+    <t>Shipping Charge</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>NRE (non recording pricing)</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>ITAR or Not</t>
+  </si>
+  <si>
+    <t>Certification required</t>
+  </si>
+  <si>
+    <t>DPAS rating</t>
+  </si>
+  <si>
+    <t>Need Date</t>
+  </si>
+  <si>
+    <t>Other Charges</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>215-90728-6 - OP Finish</t>
+  </si>
+  <si>
+    <t>VAPS 138-043 APPLICATION OF FLUID RESISTANT PRIMER, VAPS 160-023 HARD ANODIZING OF ALUMINUM ALLOYS, VAPS 176-002 FLUORESCENT PENETRANT INSPECTION.
+Test Finish-1
+Test Finish-2
+Abrasive blast using 180 grit or finer aluminum oxide or equivalent.</t>
+  </si>
+  <si>
+    <t>OP Finish according to specs</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,9 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,121 +160,61 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <b val="1"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="14"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X3" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:X3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:X3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="Part Number"/>
-    <tableColumn id="24" name="Description"/>
-    <tableColumn id="19" name="Qty"/>
-    <tableColumn id="23" name="Thickness"/>
-    <tableColumn id="22" name="Part Width"/>
-    <tableColumn id="20" name="Part Length"/>
-    <tableColumn id="21" name="Process"/>
-    <tableColumn id="2" name="Price"/>
-    <tableColumn id="3" name="ShippingCharge"/>
-    <tableColumn id="4" name="LeadTime"/>
-    <tableColumn id="5" name="GoodUntil (MM/DD/YYYY)"/>
-    <tableColumn id="6" name="Currency Code"/>
-    <tableColumn id="7" name="Shipping Charge"/>
-    <tableColumn id="8" name="Freight"/>
-    <tableColumn id="9" name="NRE (non recording pricing)"/>
-    <tableColumn id="10" name="MOQ"/>
-    <tableColumn id="11" name="Comments"/>
-    <tableColumn id="12" name="Item Description"/>
-    <tableColumn id="13" name="ITAR or Not"/>
-    <tableColumn id="14" name="Certification required"/>
-    <tableColumn id="15" name="DPAS rating"/>
-    <tableColumn id="16" name="Need Date"/>
-    <tableColumn id="17" name="Other Charges"/>
-    <tableColumn id="18" name="Rev"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part Number"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Description"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Qty"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Thickness"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Part Width"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Part Length"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Process"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Price"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ShippingCharge"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="LeadTime"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GoodUntil (MM/DD/YYYY)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Currency Code"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Shipping Charge"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Freight"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NRE (non recording pricing)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MOQ"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Comments"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Item Description"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ITAR or Not"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Certification required"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DPAS rating"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Need Date"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Other Charges"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Rev"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,190 +536,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="17.42578125" customWidth="1" min="1" max="2"/>
-    <col width="8.42578125" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="18.5703125" customWidth="1" min="5" max="5"/>
-    <col width="17.42578125" customWidth="1" min="6" max="6"/>
-    <col width="34.140625" customWidth="1" min="7" max="7"/>
-    <col width="8.85546875" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="14.140625" customWidth="1" min="10" max="10"/>
-    <col width="31.85546875" customWidth="1" min="11" max="11"/>
-    <col width="19.7109375" customWidth="1" min="12" max="12"/>
-    <col width="21.42578125" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="33.5703125" customWidth="1" min="15" max="15"/>
-    <col width="8.85546875" customWidth="1" min="16" max="16"/>
-    <col width="28.42578125" customWidth="1" min="17" max="17"/>
-    <col width="21.85546875" customWidth="1" min="18" max="18"/>
-    <col width="15.42578125" customWidth="1" min="19" max="19"/>
-    <col width="27.28515625" customWidth="1" min="20" max="20"/>
-    <col width="16.140625" customWidth="1" min="21" max="21"/>
-    <col width="14.85546875" customWidth="1" min="22" max="22"/>
-    <col width="19.28515625" customWidth="1" min="23" max="23"/>
+    <col min="1" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="33.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="27.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Part Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Thickness</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Part Width</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Part Length</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ShippingCharge</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>LeadTime</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>GoodUntil (MM/DD/YYYY)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Currency Code</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Shipping Charge</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>NRE (non recording pricing)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MOQ</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Item Description</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>ITAR or Not</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Certification required</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>DPAS rating</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Need Date</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Other Charges</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Rev</t>
-        </is>
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>215-90728-6 - OP Finish</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.135</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F3">
         <v>21.76</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>VAPS 138-043 APPLICATION OF FLUID RESISTANT PRIMER, VAPS 160-023 HARD ANODIZING OF ALUMINUM ALLOYS, VAPS 176-002 FLUORESCENT PENETRANT INSPECTION.
-Test Finish-1
-Test Finish-2
-Abrasive blast using 180 grit or finer aluminum oxide or equivalent.</t>
-        </is>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/RFQ_Excel/5995/fin.xlsx
+++ b/RFQ_Excel/5995/fin.xlsx
@@ -1,135 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saggarwal\PythonProjects\email_app_new\RFQ_Excel\5995\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E290AB-F28A-45D0-9A7E-6A98976BCE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27345" yWindow="2610" windowWidth="25875" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25380" yWindow="2985" windowWidth="25875" windowHeight="11475" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <t>Part Width</t>
-  </si>
-  <si>
-    <t>Part Length</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>ShippingCharge</t>
-  </si>
-  <si>
-    <t>LeadTime</t>
-  </si>
-  <si>
-    <t>GoodUntil (MM/DD/YYYY)</t>
-  </si>
-  <si>
-    <t>Currency Code</t>
-  </si>
-  <si>
-    <t>Shipping Charge</t>
-  </si>
-  <si>
-    <t>Freight</t>
-  </si>
-  <si>
-    <t>NRE (non recording pricing)</t>
-  </si>
-  <si>
-    <t>MOQ</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
-    <t>ITAR or Not</t>
-  </si>
-  <si>
-    <t>Certification required</t>
-  </si>
-  <si>
-    <t>DPAS rating</t>
-  </si>
-  <si>
-    <t>Need Date</t>
-  </si>
-  <si>
-    <t>Other Charges</t>
-  </si>
-  <si>
-    <t>Rev</t>
-  </si>
-  <si>
-    <t>215-90728-6 - OP Finish</t>
-  </si>
-  <si>
-    <t>VAPS 138-043 APPLICATION OF FLUID RESISTANT PRIMER, VAPS 160-023 HARD ANODIZING OF ALUMINUM ALLOYS, VAPS 176-002 FLUORESCENT PENETRANT INSPECTION.
-Test Finish-1
-Test Finish-2
-Abrasive blast using 180 grit or finer aluminum oxide or equivalent.</t>
-  </si>
-  <si>
-    <t>OP Finish according to specs</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,12 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,61 +69,121 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <b/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="14"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:X3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X3" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:X3"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part Number"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Description"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Qty"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Thickness"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Part Width"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Part Length"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Process"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Price"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ShippingCharge"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="LeadTime"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GoodUntil (MM/DD/YYYY)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Currency Code"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Shipping Charge"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Freight"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NRE (non recording pricing)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MOQ"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Comments"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Item Description"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ITAR or Not"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Certification required"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DPAS rating"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Need Date"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Other Charges"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Rev"/>
+    <tableColumn id="1" name="Part Number"/>
+    <tableColumn id="24" name="Description"/>
+    <tableColumn id="19" name="Qty"/>
+    <tableColumn id="23" name="Thickness"/>
+    <tableColumn id="22" name="Part Width"/>
+    <tableColumn id="20" name="Part Length"/>
+    <tableColumn id="21" name="Process"/>
+    <tableColumn id="2" name="Price"/>
+    <tableColumn id="3" name="ShippingCharge"/>
+    <tableColumn id="4" name="LeadTime"/>
+    <tableColumn id="5" name="GoodUntil (MM/DD/YYYY)"/>
+    <tableColumn id="6" name="Currency Code"/>
+    <tableColumn id="7" name="Shipping Charge"/>
+    <tableColumn id="8" name="Freight"/>
+    <tableColumn id="9" name="NRE (non recording pricing)"/>
+    <tableColumn id="10" name="MOQ"/>
+    <tableColumn id="11" name="Comments"/>
+    <tableColumn id="12" name="Item Description"/>
+    <tableColumn id="13" name="ITAR or Not"/>
+    <tableColumn id="14" name="Certification required"/>
+    <tableColumn id="15" name="DPAS rating"/>
+    <tableColumn id="16" name="Need Date"/>
+    <tableColumn id="17" name="Other Charges"/>
+    <tableColumn id="18" name="Rev"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -536,134 +505,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="28.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col width="17.42578125" customWidth="1" min="1" max="2"/>
+    <col width="8.42578125" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18.5703125" customWidth="1" min="5" max="5"/>
+    <col width="17.42578125" customWidth="1" min="6" max="6"/>
+    <col width="34.140625" customWidth="1" min="7" max="7"/>
+    <col width="8.85546875" customWidth="1" min="8" max="8"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="14.140625" customWidth="1" min="10" max="10"/>
+    <col width="31.85546875" customWidth="1" min="11" max="11"/>
+    <col width="19.7109375" customWidth="1" min="12" max="12"/>
+    <col width="21.42578125" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="33.5703125" customWidth="1" min="15" max="15"/>
+    <col width="8.85546875" customWidth="1" min="16" max="16"/>
+    <col width="28.42578125" customWidth="1" min="17" max="17"/>
+    <col width="21.85546875" customWidth="1" min="18" max="18"/>
+    <col width="15.42578125" customWidth="1" min="19" max="19"/>
+    <col width="27.28515625" customWidth="1" min="20" max="20"/>
+    <col width="16.140625" customWidth="1" min="21" max="21"/>
+    <col width="14.85546875" customWidth="1" min="22" max="22"/>
+    <col width="19.28515625" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Thickness</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Part Width</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Part Length</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ShippingCharge</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>LeadTime</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>GoodUntil (MM/DD/YYYY)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Currency Code</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Shipping Charge</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>NRE (non recording pricing)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>MOQ</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Item Description</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ITAR or Not</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Certification required</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DPAS rating</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Need Date</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Other Charges</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Rev</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>215-90728-6 - OP Finish</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1.135</v>
       </c>
-      <c r="E3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F3" t="n">
         <v>21.76</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>VAPS 138-043 APPLICATION OF FLUID RESISTANT PRIMER, VAPS 160-023 HARD ANODIZING OF ALUMINUM ALLOYS, VAPS 176-002 FLUORESCENT PENETRANT INSPECTION.
+Test Finish-1
+Test Finish-2
+Abrasive blast using 180 grit or finer aluminum oxide or equivalent.</t>
+        </is>
       </c>
     </row>
   </sheetData>
